--- a/Wire-chenber/2.3.1.3-data/fit-data-together.xlsx
+++ b/Wire-chenber/2.3.1.3-data/fit-data-together.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuichimori/Experiment_III/Wire-chenber/2.3.1.3-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D96A7B-9CC4-6D43-8822-5F259816D82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A10135E-FD97-AC4F-8CCC-67FBDC115326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="1840" windowWidth="23760" windowHeight="16160" xr2:uid="{32E6AF04-FA6B-FB4E-96D6-8BE22AB41F39}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{32E6AF04-FA6B-FB4E-96D6-8BE22AB41F39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>主ピーク</t>
     <rPh sb="0" eb="1">
@@ -115,6 +115,10 @@
   </si>
   <si>
     <t>エネルギー分解能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reduced chi square</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -499,14 +503,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE58E5A2-12CD-C94B-A42C-AB9F71E56EA5}">
-  <dimension ref="B3:AF4"/>
+  <dimension ref="A3:AF5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="AE11" sqref="AE11"/>
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" customWidth="1"/>
     <col min="6" max="7" width="8.42578125" customWidth="1"/>
     <col min="13" max="13" width="6.5703125" customWidth="1"/>
@@ -517,7 +522,10 @@
     <col min="31" max="31" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:32">
+    <row r="3" spans="1:32">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -606,7 +614,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:32">
+    <row r="4" spans="1:32">
+      <c r="A4">
+        <v>1.0267200000000001</v>
+      </c>
       <c r="B4">
         <v>1420</v>
       </c>
@@ -709,6 +720,116 @@
       <c r="AF4">
         <f>SQRT(Z4^2/AC4^2+Y4^2/AC4^4*AD4^2)*100</f>
         <v>0.37755776475962893</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5">
+        <v>1.0798099999999999</v>
+      </c>
+      <c r="B5">
+        <v>1440</v>
+      </c>
+      <c r="D5">
+        <v>301.82299999999998</v>
+      </c>
+      <c r="E5">
+        <v>105.6</v>
+      </c>
+      <c r="F5">
+        <v>29.6266</v>
+      </c>
+      <c r="G5">
+        <v>2.2229999999999999</v>
+      </c>
+      <c r="H5">
+        <f>2*F5*SQRT(2*LN(2))</f>
+        <v>69.765311546113921</v>
+      </c>
+      <c r="I5">
+        <f>2*G5*SQRT(2*LN(2))</f>
+        <v>5.2347649601038002</v>
+      </c>
+      <c r="J5">
+        <f>H5*N5</f>
+        <v>0.4693265943640334</v>
+      </c>
+      <c r="K5">
+        <f>SQRT(N5^2*(I5)^2+H5^2*O5^2)</f>
+        <v>3.5231319282756871E-2</v>
+      </c>
+      <c r="L5">
+        <f>880-2.96609</f>
+        <v>877.03390999999999</v>
+      </c>
+      <c r="M5">
+        <v>1.978</v>
+      </c>
+      <c r="N5">
+        <f>5.9/L5</f>
+        <v>6.7272199315531606E-3</v>
+      </c>
+      <c r="O5">
+        <f>5.9*M5/(L5)^2</f>
+        <v>1.5172094115052121E-5</v>
+      </c>
+      <c r="P5">
+        <f>J5/5.9*100</f>
+        <v>7.9546880400683628</v>
+      </c>
+      <c r="Q5">
+        <f>K5/5.9*100</f>
+        <v>0.59714100479248933</v>
+      </c>
+      <c r="S5">
+        <v>43.734900000000003</v>
+      </c>
+      <c r="T5">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="U5">
+        <v>37.7149</v>
+      </c>
+      <c r="V5">
+        <v>2.653</v>
+      </c>
+      <c r="W5">
+        <f>2*U5*SQRT(2*LN(2))</f>
+        <v>88.81180251633775</v>
+      </c>
+      <c r="X5">
+        <f>2*V5*SQRT(2*LN(2))</f>
+        <v>6.2473375794671089</v>
+      </c>
+      <c r="Y5">
+        <f>W5*N5</f>
+        <v>0.59745652804507043</v>
+      </c>
+      <c r="Z5">
+        <f>SQRT(N5^2*(X5)^2+W5^2*O5^2)</f>
+        <v>4.2048809234583394E-2</v>
+      </c>
+      <c r="AA5">
+        <f>700+34.7403</f>
+        <v>734.74030000000005</v>
+      </c>
+      <c r="AB5">
+        <v>1.4810000000000001</v>
+      </c>
+      <c r="AC5">
+        <f>AA5*N5</f>
+        <v>4.9427595906753492</v>
+      </c>
+      <c r="AD5">
+        <f>SQRT(N5^2*(AB5)^2+AC5^2*O5^2)</f>
+        <v>9.9632949486455642E-3</v>
+      </c>
+      <c r="AE5">
+        <f>Y5/AC5*100</f>
+        <v>12.08750935756998</v>
+      </c>
+      <c r="AF5">
+        <f>SQRT(Z5^2/AC5^2+Y5^2/AC5^4*AD5^2)*100</f>
+        <v>0.85106409136511318</v>
       </c>
     </row>
   </sheetData>

--- a/Wire-chenber/2.3.1.3-data/fit-data-together.xlsx
+++ b/Wire-chenber/2.3.1.3-data/fit-data-together.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuichimori/Experiment_III/Wire-chenber/2.3.1.3-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A10135E-FD97-AC4F-8CCC-67FBDC115326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60FB664-AF36-6540-9E81-473E62EB8149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{32E6AF04-FA6B-FB4E-96D6-8BE22AB41F39}"/>
   </bookViews>
@@ -165,8 +165,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -503,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE58E5A2-12CD-C94B-A42C-AB9F71E56EA5}">
-  <dimension ref="A3:AF5"/>
+  <dimension ref="A3:AF8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -832,6 +835,326 @@
         <v>0.85106409136511318</v>
       </c>
     </row>
+    <row r="6" spans="1:32">
+      <c r="B6">
+        <v>1460</v>
+      </c>
+      <c r="D6">
+        <v>255.227</v>
+      </c>
+      <c r="E6">
+        <v>1216</v>
+      </c>
+      <c r="F6">
+        <v>34.532800000000002</v>
+      </c>
+      <c r="G6">
+        <v>29.75</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H8" si="0">2*F6*SQRT(2*LN(2))</f>
+        <v>81.31852965104477</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I8" si="1">2*G6*SQRT(2*LN(2))</f>
+        <v>70.055896339670738</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J8" si="2">H6*N6</f>
+        <v>0.50868801390243834</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K8" si="3">SQRT(N6^2*(I6)^2+H6^2*O6^2)</f>
+        <v>0.43850638127658265</v>
+      </c>
+      <c r="L6">
+        <v>943.17010000000005</v>
+      </c>
+      <c r="M6">
+        <v>28.62</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N8" si="4">5.9/L6</f>
+        <v>6.2554994056745437E-3</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O8" si="5">5.9*M6/(L6)^2</f>
+        <v>1.8981983524541909E-4</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:P8" si="6">J6/5.9*100</f>
+        <v>8.6218307441091238</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ref="Q6:Q8" si="7">K6/5.9*100</f>
+        <v>7.4323115470607233</v>
+      </c>
+      <c r="S6">
+        <v>44.228700000000003</v>
+      </c>
+      <c r="T6" s="1">
+        <v>41090</v>
+      </c>
+      <c r="U6">
+        <v>52.455300000000001</v>
+      </c>
+      <c r="V6" s="1">
+        <v>12110</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ref="W6:W8" si="8">2*U6*SQRT(2*LN(2))</f>
+        <v>123.52279190811196</v>
+      </c>
+      <c r="X6">
+        <f t="shared" ref="X6:X8" si="9">2*V6*SQRT(2*LN(2))</f>
+        <v>28516.870745324795</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" ref="Y6:Y8" si="10">W6*N6</f>
+        <v>0.77269675136845473</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" ref="Z6:Z8" si="11">SQRT(N6^2*(X6)^2+W6^2*O6^2)</f>
+        <v>178.38726954000924</v>
+      </c>
+      <c r="AA6">
+        <f>770+10.0126</f>
+        <v>780.01260000000002</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>48080</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" ref="AC6:AC8" si="12">AA6*N6</f>
+        <v>4.8793683557186558</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" ref="AD6:AD8" si="13">SQRT(N6^2*(AB6)^2+AC6^2*O6^2)</f>
+        <v>300.76441142625816</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" ref="AE6:AE8" si="14">Y6/AC6*100</f>
+        <v>15.835999560534272</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" ref="AF6:AF8" si="15">SQRT(Z6^2/AC6^2+Y6^2/AC6^4*AD6^2)*100</f>
+        <v>3784.0194770057587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="B7">
+        <v>1480</v>
+      </c>
+      <c r="D7">
+        <v>301.82299999999998</v>
+      </c>
+      <c r="E7">
+        <v>105.6</v>
+      </c>
+      <c r="F7">
+        <v>29.6266</v>
+      </c>
+      <c r="G7">
+        <v>2.2229999999999999</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>69.765311546113921</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>5.2347649601038002</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>0.4693265943640334</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>3.5279696988439968E-2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L6:L8" si="16">880-2.96609</f>
+        <v>877.03390999999999</v>
+      </c>
+      <c r="M7">
+        <v>3.9780000000000002</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>6.7272199315531606E-3</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>3.0512937507420293E-5</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="6"/>
+        <v>7.9546880400683628</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="7"/>
+        <v>0.59796096590576209</v>
+      </c>
+      <c r="S7">
+        <v>43.734900000000003</v>
+      </c>
+      <c r="T7">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="U7">
+        <v>37.7149</v>
+      </c>
+      <c r="V7">
+        <v>2.653</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="8"/>
+        <v>88.81180251633775</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="9"/>
+        <v>6.2473375794671089</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="10"/>
+        <v>0.59745652804507043</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="11"/>
+        <v>4.2114490540779585E-2</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" ref="AA6:AA8" si="17">700+34.7403</f>
+        <v>734.74030000000005</v>
+      </c>
+      <c r="AB7">
+        <v>3.4809999999999999</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="12"/>
+        <v>4.9427595906753492</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="13"/>
+        <v>2.3417938242329159E-2</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="14"/>
+        <v>12.08750935756998</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="15"/>
+        <v>0.85396650999797397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="B8">
+        <v>1500</v>
+      </c>
+      <c r="D8">
+        <v>301.82299999999998</v>
+      </c>
+      <c r="E8">
+        <v>105.6</v>
+      </c>
+      <c r="F8">
+        <v>29.6266</v>
+      </c>
+      <c r="G8">
+        <v>2.2229999999999999</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>69.765311546113921</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>5.2347649601038002</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>0.4693265943640334</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>3.5316025972440115E-2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="16"/>
+        <v>877.03390999999999</v>
+      </c>
+      <c r="M8">
+        <v>4.9779999999999998</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>6.7272199315531606E-3</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>3.8183359203604378E-5</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="6"/>
+        <v>7.9546880400683628</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="7"/>
+        <v>0.59857671139729007</v>
+      </c>
+      <c r="S8">
+        <v>43.734900000000003</v>
+      </c>
+      <c r="T8">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="U8">
+        <v>37.7149</v>
+      </c>
+      <c r="V8">
+        <v>2.653</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="8"/>
+        <v>88.81180251633775</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="9"/>
+        <v>6.2473375794671089</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="10"/>
+        <v>0.59745652804507043</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="11"/>
+        <v>4.2163805444492691E-2</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="17"/>
+        <v>734.74030000000005</v>
+      </c>
+      <c r="AB8">
+        <v>4.4809999999999999</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="12"/>
+        <v>4.9427595906753492</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="13"/>
+        <v>3.0145263315919001E-2</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="14"/>
+        <v>12.08750935756998</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="15"/>
+        <v>0.85622133844647808</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Wire-chenber/2.3.1.3-data/fit-data-together.xlsx
+++ b/Wire-chenber/2.3.1.3-data/fit-data-together.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuichimori/Experiment_III/Wire-chenber/2.3.1.3-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60FB664-AF36-6540-9E81-473E62EB8149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F6937A-AA32-A949-925E-7ABAFA69F730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{32E6AF04-FA6B-FB4E-96D6-8BE22AB41F39}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>主ピーク</t>
     <rPh sb="0" eb="1">
@@ -119,6 +119,13 @@
   </si>
   <si>
     <t>reduced chi square</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これ以降多分ほぼ意味ない</t>
+    <rPh sb="4" eb="6">
+      <t>タブンホ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -509,12 +516,12 @@
   <dimension ref="A3:AF8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="AB13" sqref="AB13"/>
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" customWidth="1"/>
     <col min="6" max="7" width="8.42578125" customWidth="1"/>
     <col min="13" max="13" width="6.5703125" customWidth="1"/>
@@ -942,110 +949,112 @@
       </c>
     </row>
     <row r="7" spans="1:32">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
       <c r="B7">
         <v>1480</v>
       </c>
       <c r="D7">
-        <v>301.82299999999998</v>
+        <v>224.03100000000001</v>
       </c>
       <c r="E7">
-        <v>105.6</v>
+        <v>258.39999999999998</v>
       </c>
       <c r="F7">
-        <v>29.6266</v>
+        <v>41.6447</v>
       </c>
       <c r="G7">
-        <v>2.2229999999999999</v>
+        <v>10.15</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>69.765311546113921</v>
+        <v>98.065774329300382</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>5.2347649601038002</v>
+        <v>23.901423457064137</v>
       </c>
       <c r="J7">
         <f t="shared" si="2"/>
-        <v>0.4693265943640334</v>
+        <v>0.55782740597471137</v>
       </c>
       <c r="K7">
         <f t="shared" si="3"/>
-        <v>3.5279696988439968E-2</v>
+        <v>0.13599718241487693</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L6:L8" si="16">880-2.96609</f>
-        <v>877.03390999999999</v>
+        <v>1037.2170000000001</v>
       </c>
       <c r="M7">
-        <v>3.9780000000000002</v>
+        <v>6.0359999999999996</v>
       </c>
       <c r="N7">
         <f t="shared" si="4"/>
-        <v>6.7272199315531606E-3</v>
+        <v>5.6882985913265975E-3</v>
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>3.0512937507420293E-5</v>
+        <v>3.3102591161972221E-5</v>
       </c>
       <c r="P7">
         <f t="shared" si="6"/>
-        <v>7.9546880400683628</v>
+        <v>9.4547017961815492</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>0.59796096590576209</v>
+        <v>2.3050369900826597</v>
       </c>
       <c r="S7">
-        <v>43.734900000000003</v>
+        <v>24.235099999999999</v>
       </c>
       <c r="T7">
-        <v>1.1910000000000001</v>
+        <v>2333</v>
       </c>
       <c r="U7">
-        <v>37.7149</v>
+        <v>64.970399999999998</v>
       </c>
       <c r="V7">
-        <v>2.653</v>
+        <v>1899</v>
       </c>
       <c r="W7">
         <f t="shared" si="8"/>
-        <v>88.81180251633775</v>
+        <v>152.99360025367878</v>
       </c>
       <c r="X7">
         <f t="shared" si="9"/>
-        <v>6.2473375794671089</v>
+        <v>4471.8032655137731</v>
       </c>
       <c r="Y7">
         <f t="shared" si="10"/>
-        <v>0.59745652804507043</v>
+        <v>0.87027328080498556</v>
       </c>
       <c r="Z7">
         <f t="shared" si="11"/>
-        <v>4.2114490540779585E-2</v>
+        <v>25.436952720079859</v>
       </c>
       <c r="AA7">
-        <f t="shared" ref="AA6:AA8" si="17">700+34.7403</f>
-        <v>734.74030000000005</v>
+        <f>835+0.73758</f>
+        <v>835.73757999999998</v>
       </c>
       <c r="AB7">
-        <v>3.4809999999999999</v>
+        <v>1169</v>
       </c>
       <c r="AC7">
         <f t="shared" si="12"/>
-        <v>4.9427595906753492</v>
+        <v>4.7539248990326994</v>
       </c>
       <c r="AD7">
         <f t="shared" si="13"/>
-        <v>2.3417938242329159E-2</v>
+        <v>6.6496210551228874</v>
       </c>
       <c r="AE7">
         <f t="shared" si="14"/>
-        <v>12.08750935756998</v>
+        <v>18.306416262109305</v>
       </c>
       <c r="AF7">
         <f t="shared" si="15"/>
-        <v>0.85396650999797397</v>
+        <v>535.68502340051066</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -1081,7 +1090,7 @@
         <v>3.5316025972440115E-2</v>
       </c>
       <c r="L8">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="L6:L8" si="16">880-2.96609</f>
         <v>877.03390999999999</v>
       </c>
       <c r="M8">
@@ -1132,7 +1141,7 @@
         <v>4.2163805444492691E-2</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="AA6:AA8" si="17">700+34.7403</f>
         <v>734.74030000000005</v>
       </c>
       <c r="AB8">

--- a/Wire-chenber/2.3.1.3-data/fit-data-together.xlsx
+++ b/Wire-chenber/2.3.1.3-data/fit-data-together.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuichimori/Experiment_III/Wire-chenber/2.3.1.3-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F6937A-AA32-A949-925E-7ABAFA69F730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E071B50F-936E-5545-9D05-EDBE823AE67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{32E6AF04-FA6B-FB4E-96D6-8BE22AB41F39}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>主ピーク</t>
     <rPh sb="0" eb="1">
@@ -125,6 +125,13 @@
     <t>これ以降多分ほぼ意味ない</t>
     <rPh sb="4" eb="6">
       <t>タブンホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>撤退</t>
+    <rPh sb="0" eb="2">
+      <t>テッタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -516,7 +523,7 @@
   <dimension ref="A3:AF8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1061,107 +1068,8 @@
       <c r="B8">
         <v>1500</v>
       </c>
-      <c r="D8">
-        <v>301.82299999999998</v>
-      </c>
-      <c r="E8">
-        <v>105.6</v>
-      </c>
-      <c r="F8">
-        <v>29.6266</v>
-      </c>
-      <c r="G8">
-        <v>2.2229999999999999</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>69.765311546113921</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>5.2347649601038002</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="2"/>
-        <v>0.4693265943640334</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="3"/>
-        <v>3.5316025972440115E-2</v>
-      </c>
-      <c r="L8">
-        <f t="shared" ref="L6:L8" si="16">880-2.96609</f>
-        <v>877.03390999999999</v>
-      </c>
-      <c r="M8">
-        <v>4.9779999999999998</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="4"/>
-        <v>6.7272199315531606E-3</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="5"/>
-        <v>3.8183359203604378E-5</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="6"/>
-        <v>7.9546880400683628</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="7"/>
-        <v>0.59857671139729007</v>
-      </c>
-      <c r="S8">
-        <v>43.734900000000003</v>
-      </c>
-      <c r="T8">
-        <v>1.1910000000000001</v>
-      </c>
-      <c r="U8">
-        <v>37.7149</v>
-      </c>
-      <c r="V8">
-        <v>2.653</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="8"/>
-        <v>88.81180251633775</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="9"/>
-        <v>6.2473375794671089</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="10"/>
-        <v>0.59745652804507043</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="11"/>
-        <v>4.2163805444492691E-2</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" ref="AA6:AA8" si="17">700+34.7403</f>
-        <v>734.74030000000005</v>
-      </c>
-      <c r="AB8">
-        <v>4.4809999999999999</v>
-      </c>
-      <c r="AC8">
-        <f t="shared" si="12"/>
-        <v>4.9427595906753492</v>
-      </c>
-      <c r="AD8">
-        <f t="shared" si="13"/>
-        <v>3.0145263315919001E-2</v>
-      </c>
-      <c r="AE8">
-        <f t="shared" si="14"/>
-        <v>12.08750935756998</v>
-      </c>
-      <c r="AF8">
-        <f t="shared" si="15"/>
-        <v>0.85622133844647808</v>
+      <c r="C8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Wire-chenber/2.3.1.3-data/fit-data-together.xlsx
+++ b/Wire-chenber/2.3.1.3-data/fit-data-together.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuichimori/Experiment_III/Wire-chenber/2.3.1.3-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E071B50F-936E-5545-9D05-EDBE823AE67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE987CEF-E714-084D-8468-CAAACED31CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{32E6AF04-FA6B-FB4E-96D6-8BE22AB41F39}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{32E6AF04-FA6B-FB4E-96D6-8BE22AB41F39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -201,6 +201,988 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1420</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1480</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$4:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.4004381069126275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9546880400683628</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6218307441091238</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4547017961815492</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1DAB-514C-8445-8981B8CB4112}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1420</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1480</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$4:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.37762584830784501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4693265943640334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50868801390243834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55782740597471137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1DAB-514C-8445-8981B8CB4112}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="607057104"/>
+        <c:axId val="852137104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="607057104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="852137104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="852137104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="607057104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>206188</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D80FD01-3A70-25FB-BC8F-4AFB4E51064D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -523,7 +1505,7 @@
   <dimension ref="A3:AF8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B4" sqref="B4:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1075,5 +2057,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>